--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DA3CB-EFCE-9D40-BA26-EFC9913238E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7613782-C734-8145-9B0F-F98D15CEAA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -77,13 +77,19 @@
     <t>LC No</t>
   </si>
   <si>
-    <t>Algorithm &amp; DS</t>
-  </si>
-  <si>
     <t>1. Sort the intervals
 2. Final list is list and requiresO(1) to get last added list hence it is efficient 
 3. Time complexity : O(n\log{}n)_x000B__x000B_O(nlogn)_x000B_Other than the sort invocation, we do a simple linear scan of the list, so the runtime is dominated by the O(n\log{}n)_x000B__x000B_O(nlogn) complexity of sorting.
 4. Space complexity : O(\log N)_x000B__x000B_O(logN) (or O(n)_x000B__x000B_O(n))_x000B_If we can sort intervals in place, we do not need more than constant additional space, although the sorting itself takes O(\log n)_x000B__x000B_O(logn) space. Otherwise, we must allocate linear space to store a copy of intervals and sort that.</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.List </t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +477,7 @@
     <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -488,10 +494,13 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="313" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="313" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56</v>
       </c>
@@ -508,7 +517,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7613782-C734-8145-9B0F-F98D15CEAA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304BE6C0-5463-A444-B92B-6A94FFFA3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +523,7 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="202" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{422DC4F6-CC54-BA49-8E19-6B727433D272}"/>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304BE6C0-5463-A444-B92B-6A94FFFA3FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC85E9-A0F2-B244-8BDC-03E8443F237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -91,12 +91,65 @@
   <si>
     <t xml:space="preserve">1.List </t>
   </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <r>
+      <t>Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> intervals = [[0,30],[5,10],[15,20]]</t>
+    </r>
+  </si>
+  <si>
+    <t>Output: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Think through this problem in real
+time scenerio. We need to provide meeting rooms to one team whose start time is much earlier and ask them to leave once end time completes
+Min heap can be used in this case_x000B__x000B_1.first sort all intervals by start time
+2.push first interval into min heap 
+[0,30]
+3.for next interval , retrieve min_heap[0][-1] which is end time of fast available
+heap and compare end time of interval to it.  
+min_heap = [[0,30]]
+interval  = [5,10]
+30 &gt; 5 which means it needs a seperate room 
+so push it to heap 
+4.for intervals which have end time &gt; min_heap[0][-1] . we can pop it and give that room to new interval 
+min_heap = [[5,10],[0,30]]
+interva = [15,20]
+10 &lt; 15
+so pop min_heap
+and push new interval
+ </t>
+  </si>
+  <si>
+    <t>Time Complexity: O(N\log N)O(NlogN).
+There are two major portions that take up time here. One is sorting of the array that takes O(N\log N)O(NlogN) considering that the array consists of NN elements.
+Then we have the min-heap. In the worst case, all NN meetings will collide with each other. In any case we have NN add operations on the heap. In the worst case we will have NN extract-min operations as well. Overall complexity being (NlogN)(NlogN) since extract-min operation on a heap takes O(\log N)O(logN).
+Space Complexity: O(N)O(N) because we construct the min-heap and that can contain NN elements in the worst case as described above in the time complexity section. Hence, the space complexity is O(N)O(N).</t>
+  </si>
+  <si>
+    <t>min_heap</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +166,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF263238"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color rgb="FF263238"/>
       <name val="Consolas"/>
@@ -140,13 +207,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,13 +531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="62.6640625" customWidth="1"/>
@@ -477,7 +546,7 @@
     <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -500,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="313" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="313" customHeight="1">
       <c r="A2">
         <v>56</v>
       </c>
@@ -523,10 +592,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="202" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="313" customHeight="1">
+      <c r="A3" s="4">
+        <v>253</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{422DC4F6-CC54-BA49-8E19-6B727433D272}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3B7CE275-DFEC-454E-909F-4F9A7C70A73E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC85E9-A0F2-B244-8BDC-03E8443F237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28CFE2-9D48-0642-BBEA-0C0DB62111DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -142,14 +142,72 @@
     <t>min_heap</t>
   </si>
   <si>
-    <t>3Sum</t>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Input: nums = [1,2,3,1]</t>
+  </si>
+  <si>
+    <r>
+      <t>Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> true</t>
+    </r>
+  </si>
+  <si>
+    <t>For Finding Duplicate items in a unsorted list .we can solve it in 2 ways 
+1. Presorting O(nlogn)+search if adjacent elements are equal
+2. create a hasmap/set to capture elements and see if it already excists in list return duplicate  O(n)</t>
+  </si>
+  <si>
+    <t>hashmap</t>
+  </si>
+  <si>
+    <t>set
+hashmap</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <r>
+      <t>Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> s = "anagram", t = "nagaram"</t>
+    </r>
+  </si>
+  <si>
+    <t>sol-1
+        build hashmap for both strings to capture characters and their counts
+        if both hashmaps are equal then return true else false
+        part-1 O(N) -&gt; for building hashmap
+        part-2 O(N) for comparing counts in both hashmaps
+        Space complexity -&gt; 2 O(n)
+sol-2
+        1. create hashmap and will doing it use single hashmap to increment and decrement counts
+        2. each value in final dictionary should be 0  
+        Space complexity -&gt;  O(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,18 +230,31 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF263238"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF263238"/>
-      <name val="Consolas"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,7 +286,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,14 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="62.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
@@ -547,7 +622,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -570,7 +645,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="313" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -593,13 +668,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="313" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
@@ -615,19 +690,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" ht="147" customHeight="1">
+      <c r="A4" s="7">
+        <v>217</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="224">
+      <c r="A5" s="8">
+        <v>242</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{422DC4F6-CC54-BA49-8E19-6B727433D272}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{3B7CE275-DFEC-454E-909F-4F9A7C70A73E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CB7F32F9-7BF2-AC4D-B5A1-1706D1FC7A71}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7ACC022D-9E8F-1340-BB6C-E100B9999DBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28CFE2-9D48-0642-BBEA-0C0DB62111DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE98101-AEBC-004B-824D-845DB5FB5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -167,9 +167,6 @@
 2. create a hasmap/set to capture elements and see if it already excists in list return duplicate  O(n)</t>
   </si>
   <si>
-    <t>hashmap</t>
-  </si>
-  <si>
     <t>set
 hashmap</t>
   </si>
@@ -200,7 +197,15 @@
 sol-2
         1. create hashmap and will doing it use single hashmap to increment and decrement counts
         2. each value in final dictionary should be 0  
-        Space complexity -&gt;  O(n)</t>
+        Space complexity -&gt;  O(n)
+sol3
+    1.presorting and compare
+sol4
+    1. Preallocate 2 lists with size of 26 (all alphabets)-each index is for one alphabet
+	2. increment alphabet if elem is in s, decrement if it is in t</t>
+  </si>
+  <si>
+    <t>hashmap,list[aphabets]</t>
   </si>
 </sst>
 </file>
@@ -608,7 +613,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -619,6 +624,7 @@
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="67.5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -707,27 +713,27 @@
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="224">
+    <row r="5" spans="1:7" ht="359">
       <c r="A5" s="8">
         <v>242</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE98101-AEBC-004B-824D-845DB5FB5A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA249478-0F3F-1E46-B030-37C500576B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t>hashmap,list[aphabets]</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <r>
+      <t>Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nums = [2,7,11,15], target = 9</t>
+    </r>
+  </si>
+  <si>
+    <t>Output: [0,1]
+Explanation: Because nums[0] + nums[1] == 9, we return [0, 1].</t>
+  </si>
+  <si>
+    <t>hasmap</t>
+  </si>
+  <si>
+    <t>push elem and index into dictionary and if target-elem is already in it return index of elem and target-elem</t>
+  </si>
+  <si>
+    <t>O(n) , O(n)-Time and space complexity</t>
   </si>
 </sst>
 </file>
@@ -610,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -736,12 +766,36 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{422DC4F6-CC54-BA49-8E19-6B727433D272}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{3B7CE275-DFEC-454E-909F-4F9A7C70A73E}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{CB7F32F9-7BF2-AC4D-B5A1-1706D1FC7A71}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{7ACC022D-9E8F-1340-BB6C-E100B9999DBF}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{CCADE891-1C52-6E4B-856F-E2835475C144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA249478-0F3F-1E46-B030-37C500576B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB416573-717C-5E46-9445-E0E77EA0902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB416573-717C-5E46-9445-E0E77EA0902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00D6C3-DF73-AD4C-AFAB-4FC6E2F0058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -236,6 +236,76 @@
   </si>
   <si>
     <t>O(n) , O(n)-Time and space complexity</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <r>
+      <t>Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> strs = ["eat","tea","tan","ate","nat","bat"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [["bat"],["nat","tan"],["ate","eat","tea"]]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">idea is sort each string and similar raw string should be appended to list </t>
+  </si>
+  <si>
+    <t>Time Complexity: O(NKlog K) , where N is the length of strs, and K is the maximum length of a string in strs. The outer loop has complexity O(N) as we iterate through each string. Then, we sort each string in O(K log K)  time.
+Space Complexity: O(NK), the total information content stored in ans</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>nums = [1,1,1,2,2,3], k = 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF263238"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [1,2]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Think how can we get 3 largets elements in a list or 3 smallest element in a list
+2.For solving above the best possible way is to use min_heap/max_heap where you can obtain smallest /largest fastly 
+3.Above solution is transform and lookup solution , but if we want to do a pre-sorting and sorting methodology kind of solution
+4.We can't use insertion/selection/bubble hence remaining sorts are merge sort (difference/union/set etc ..) and Quick sort (Quick select methodology)
+5.Quick select is a process where you choose a pivot (random value in list) and while sorting the list based on pivot if index of interst is available we can return it</t>
+  </si>
+  <si>
+    <t>Time complexity :O(N log k)) if k &lt; Nk&lt;N and )O(N) in the particular case of N = kN=k. That ensures time complexity to be better thanO(NlogN).
+Space complexity : O(N+k) to store the hash map with not more NN elements and a heap with kk elements.</t>
   </si>
 </sst>
 </file>
@@ -640,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -651,7 +721,7 @@
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="62.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
     <col min="5" max="5" width="67.5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
@@ -789,6 +859,46 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="173">
+      <c r="A7" s="8">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="275">
+      <c r="A8" s="8">
+        <v>347</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{422DC4F6-CC54-BA49-8E19-6B727433D272}"/>
@@ -796,6 +906,8 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{CB7F32F9-7BF2-AC4D-B5A1-1706D1FC7A71}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{7ACC022D-9E8F-1340-BB6C-E100B9999DBF}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{CCADE891-1C52-6E4B-856F-E2835475C144}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B91EEA08-8FE2-7E4B-8CF0-C7FFBEAFA253}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{0110821C-00F7-B545-AAFC-4569F89C2C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python/Solutions_Addendum.xlsx
+++ b/Python/Solutions_Addendum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagasudheerravela/Desktop/Interview_Kickstart/Leetcode_PythonSols/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00D6C3-DF73-AD4C-AFAB-4FC6E2F0058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF539EF-842B-3643-A908-8BD84EFF5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D384EB79-E46B-E34E-B624-6E4E8F264DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -307,12 +307,22 @@
     <t>Time complexity :O(N log k)) if k &lt; Nk&lt;N and )O(N) in the particular case of N = kN=k. That ensures time complexity to be better thanO(NlogN).
 Space complexity : O(N+k) to store the hash map with not more NN elements and a heap with kk elements.</t>
   </si>
+  <si>
+    <t>Initialize a list containing 9 hash sets, where the hash set at index r will be used to store previously seen numbers in row r of the sudoku. Likewise, initialize lists of 9 hash sets to track the columns and boxes too.
+Iterate over each position (r, c) in the sudoku. At each iteration, if there is a number at the current position:
+Check if the number exists in the hash set for the current row, column, or box. If it does, return false, because this is the second occurrence of the number in the current row, column, or box.
+Otherwise, update the set responsible for tracking previously seen numbers in the current row, column, and box. The index of the current box is (r / 3) * 3 + (c / 3) where / represents floor division.
+If no duplicates were found after every position on the sudoku board has been visited, then the sudoku is valid, so return true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valid Sudoku</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F96BD-FC68-7545-8D31-A286409A3E58}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
@@ -727,7 +737,7 @@
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -750,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="313" customHeight="1">
+    <row r="2" spans="1:7" ht="313" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>56</v>
       </c>
@@ -773,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="313" customHeight="1">
+    <row r="3" spans="1:7" ht="313" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>253</v>
       </c>
@@ -796,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="147" customHeight="1">
+    <row r="4" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>217</v>
       </c>
@@ -816,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="359">
+    <row r="5" spans="1:7" ht="359" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>242</v>
       </c>
@@ -836,7 +846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="51">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -859,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="173">
+    <row r="7" spans="1:7" ht="173" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>49</v>
       </c>
@@ -879,7 +889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="275">
+    <row r="8" spans="1:7" ht="275" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>347</v>
       </c>
@@ -897,6 +907,17 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="292" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -908,6 +929,7 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{CCADE891-1C52-6E4B-856F-E2835475C144}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{B91EEA08-8FE2-7E4B-8CF0-C7FFBEAFA253}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{0110821C-00F7-B545-AAFC-4569F89C2C29}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{9E369F6E-8CFE-254A-9A0E-5F41CFBD3133}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
